--- a/conejo/formatted_data_new_method.xlsx
+++ b/conejo/formatted_data_new_method.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC1B49C-AEFF-4A93-93B1-29F898E0828C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72EA7E37-91D3-468E-AD7B-770664FB3792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
   </bookViews>
   <sheets>
     <sheet name="busses" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">gens!$A$1:$H$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -818,10 +819,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -883,35 +881,12 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="4" xr16:uid="{AF929CBE-9A98-4FB1-8600-09AC1EDBF9A8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="15">
-    <queryTableFields count="14">
-      <queryTableField id="1" name="Column1" tableColumnId="1"/>
-      <queryTableField id="2" name="Column2" tableColumnId="2"/>
-      <queryTableField id="3" name="Column3" tableColumnId="3"/>
-      <queryTableField id="4" name="Column4" tableColumnId="4"/>
-      <queryTableField id="5" name="Column5" tableColumnId="5"/>
-      <queryTableField id="6" name="Column6" tableColumnId="6"/>
-      <queryTableField id="7" name="Column7" tableColumnId="7"/>
-      <queryTableField id="8" name="Column8" tableColumnId="8"/>
-      <queryTableField id="9" name="Column9" tableColumnId="9"/>
-      <queryTableField id="10" name="Column10" tableColumnId="10"/>
-      <queryTableField id="11" name="Column11" tableColumnId="11"/>
-      <queryTableField id="12" name="Column12" tableColumnId="12"/>
-      <queryTableField id="13" name="Column13" tableColumnId="13"/>
-      <queryTableField id="14" name="Column14" tableColumnId="14"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9CB3CDE-B038-4101-9B2C-0A5D938260EC}" name="bus_mod" displayName="bus_mod" ref="A1:K74" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K74" xr:uid="{B40B34FA-C208-463E-BA37-17D45E5E281F}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{9F5EBC42-A55C-48F5-8886-A6EA23FD2FAC}" uniqueName="1" name="Bus #" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{44604493-9553-4945-BB8C-AA93E67A0B66}" uniqueName="2" name="Bus Name" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{44604493-9553-4945-BB8C-AA93E67A0B66}" uniqueName="2" name="Bus Name" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{AC693E4A-B422-4925-A16F-E641335F7D1A}" uniqueName="3" name="Bus Type" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{E2833BE0-3D07-4DE1-99C7-E85A1DC2B47B}" uniqueName="4" name="MW Load" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{386A8496-9D0C-45D0-9E24-DB5287E8A676}" uniqueName="5" name="MVAR Load" queryTableFieldId="5"/>
@@ -931,7 +906,7 @@
   <autoFilter ref="A1:M101" xr:uid="{3E102DA1-9D67-42AF-89EF-2EC99EBEC2BA}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{9FFFB1AD-8AA2-4576-9A62-F2B5575162E1}" uniqueName="1" name="Bus #" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{AACEDBFC-10D2-49B0-A7D0-CC5D01B5EDAB}" uniqueName="2" name="Gen Type" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{AACEDBFC-10D2-49B0-A7D0-CC5D01B5EDAB}" uniqueName="2" name="Gen Type" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{43BBEC89-052E-455E-BC42-619D22857D54}" uniqueName="3" name="Bus ID #" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{93340665-E2D4-4863-BF4C-E5AE011A0E7E}" uniqueName="4" name="Pgen" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{C5CA14A4-73A2-401F-BBFF-2EEFC2B50508}" uniqueName="5" name="Qgen " queryTableFieldId="5"/>
@@ -943,29 +918,6 @@
     <tableColumn id="11" xr3:uid="{A2E1354A-A5E6-4465-9B67-349FC30DCA6D}" uniqueName="11" name="IC" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{4C9D2BA1-1E5D-4444-AA6C-779281B45B8C}" uniqueName="12" name="ID #" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{AB2EB82D-D94A-40FA-A04C-5D12BC8255D4}" uniqueName="13" name="genCostFactor" queryTableFieldId="13"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0A57F45-AC3E-41D1-8307-A9F753455909}" name="lines_mod" displayName="lines_mod" ref="A1:N117" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N117" xr:uid="{427D55AC-E4CC-4702-8116-E6A867A1E746}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{B6B6A510-3601-446A-A8E8-27038745CC75}" uniqueName="1" name="ID #" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{82005542-E837-49AC-B6F6-64B1A25E687E}" uniqueName="2" name="From Bus" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{55084276-1E30-4EED-AF3D-CC88F71BE4AD}" uniqueName="3" name="To Bus" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{C750F9C4-E6CB-4424-8D6C-FA21A613E72C}" uniqueName="4" name="L - miles" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{EF24ADC4-233E-404F-961C-713C35CF60E7}" uniqueName="5" name="Perm. Lam-p" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{F6670B01-8C63-46E7-A734-F0EF3417FD37}" uniqueName="6" name="Dur" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{DC0C322C-3BF3-4A62-8CC4-8B6B9D1DE792}" uniqueName="7" name="Tram Lam-t" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{1CDC7721-B6B9-4D90-A68A-FB963C809B28}" uniqueName="8" name="R pu" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{A08EA250-71DC-46D7-AE75-B7A9ED0FC7E4}" uniqueName="9" name="X pu" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{825E8A15-8A09-4755-AE07-64E597EC00A9}" uniqueName="10" name="B pu" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{E9A148DC-FAD5-468F-BFC2-9A5F4A7072EE}" uniqueName="11" name="Conv MVA" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{11C8652B-16BB-4F2A-AD09-AE73E35ACF1E}" uniqueName="12" name="LTE MVA" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{587D0F35-B2F0-4A2D-BC24-5739E463F0E6}" uniqueName="13" name="STE MVA" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{9F86D822-CBA8-431C-9E55-7ABD8E57A0B5}" uniqueName="14" name="Tr pu" queryTableFieldId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1270,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FB4950-8AF2-4919-9162-03A3918F6395}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
@@ -3882,7 +3834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE3EA53-F01C-4E2B-BB06-AD151A3AC232}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="M68" sqref="M68:M100"/>
     </sheetView>
   </sheetViews>
@@ -8006,7 +7958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0F8381-333D-427E-B2F5-663E2125B366}">
   <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -13122,9 +13074,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -13132,7 +13081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8722CD-C19E-4211-86FB-9C63A36DA772}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
